--- a/Resolução.xlsx
+++ b/Resolução.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carpe Diem\Desktop\Banco-de-Dados-Parte-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F695C20E-ACFF-43E1-A77F-EE59F2DE5F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67A203A-482C-4654-9AE3-803E2FE7BA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{4B89175D-AE54-43C6-BBCD-90F2CBA31EEA}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +200,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,26 +225,185 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF00B050"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -247,7 +412,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF00B050"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -255,17 +420,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF00B050"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF00B050"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF00B050"/>
       </left>
       <right/>
       <top/>
@@ -275,7 +440,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF00B050"/>
       </right>
       <top/>
       <bottom/>
@@ -283,42 +448,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF00B050"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF00B050"/>
       </bottom>
       <diagonal/>
     </border>
@@ -327,192 +462,63 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF00B050"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF00B050"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF00B050"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </left>
       <right style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </right>
       <top style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </left>
       <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B050"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B050"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,136 +526,139 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,529 +974,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B6CCA2-CBF2-40DC-8F23-617FB25A9A9D}">
-  <dimension ref="B1:M27"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="10.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-    </row>
-    <row r="4" spans="2:13" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="35">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="2:13" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E5" s="6">
         <v>101</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-    </row>
-    <row r="5" spans="2:13" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="35">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="2:13" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E6" s="6">
         <v>101</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="2:13" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="35">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E7" s="6">
         <v>102</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-    </row>
-    <row r="7" spans="2:13" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="35">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="2:13" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E8" s="6">
         <v>103</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-    </row>
-    <row r="8" spans="2:13" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E9" s="10">
         <v>103</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="2:13" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="2:13" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="1" t="s">
+      <c r="G14" s="27"/>
+      <c r="H14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="3" t="s">
+      <c r="J14" s="28"/>
+      <c r="K14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L14" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M14" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+    <row r="15" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="45">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="41">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="42">
         <v>1</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6">
+      <c r="G15" s="29"/>
+      <c r="H15" s="40">
         <v>1</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="6">
+      <c r="J15" s="28"/>
+      <c r="K15" s="42">
         <v>101</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M15" s="46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="23">
+    <row r="16" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="45">
         <v>2</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="41">
         <v>1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="42">
         <v>1</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6">
+      <c r="G16" s="29"/>
+      <c r="H16" s="40">
         <v>2</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I16" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="6">
+      <c r="J16" s="28"/>
+      <c r="K16" s="42">
         <v>102</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L16" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M16" s="46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="23">
+    <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="45">
         <v>3</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="41">
         <v>1</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="42">
         <v>2</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="6">
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="42">
         <v>103</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M17" s="46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
+    <row r="18" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="45">
         <v>4</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="41">
         <v>2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="42">
         <v>3</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="2:13" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="23">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="45">
         <v>5</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="41">
         <v>2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="42">
         <v>3</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="22" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="23" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B11:M12"/>
-    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="B12:M13"/>
+    <mergeCell ref="B2:H3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
